--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_13-25.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_13-25.xlsx
@@ -86,12 +86,24 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
     <t>LYSE 0.65% NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
   </si>
   <si>
@@ -102,9 +114,6 @@
   </si>
   <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:4</t>
   </si>
   <si>
     <t>ORS 10 SACHET</t>
@@ -971,11 +980,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -991,13 +1000,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1009,7 +1018,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1017,17 +1026,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1043,17 +1052,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1061,7 +1070,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1069,13 +1078,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1087,7 +1096,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1095,17 +1104,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1113,7 +1122,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1121,17 +1130,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1139,7 +1148,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1147,17 +1156,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1165,7 +1174,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1173,7 +1182,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1183,7 +1192,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1191,7 +1200,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1205,11 +1214,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>531</v>
+        <v>144</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1217,7 +1226,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1225,13 +1234,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>-96</v>
+        <v>84</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1251,17 +1260,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1269,7 +1278,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1277,13 +1286,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>96</v>
+        <v>531</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1295,7 +1304,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1303,17 +1312,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>2</v>
+        <v>-96</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1321,7 +1330,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1329,17 +1338,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1347,7 +1356,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1355,13 +1364,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1373,7 +1382,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1381,13 +1390,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1399,7 +1408,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1413,45 +1422,123 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" ht="26.25" customHeight="1">
-      <c r="K30" s="10">
-        <v>1474</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c t="s" r="B30" s="7">
+        <v>51</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c t="s" r="H30" s="8">
+        <v>17</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9">
+        <v>40</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c t="s" r="N30" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c t="s" r="B31" s="7">
         <v>52</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c t="s" r="F31" s="12">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c t="s" r="H31" s="8">
         <v>53</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c t="s" r="I31" s="14">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9">
+        <v>80</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c t="s" r="N31" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c t="s" r="B32" s="7">
         <v>54</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c t="s" r="H32" s="8">
+        <v>9</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9">
+        <v>20</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c t="s" r="N32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" customHeight="1">
+      <c r="K33" s="10">
+        <v>1534</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
+      <c t="s" r="A34" s="11">
+        <v>55</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c t="s" r="F34" s="12">
+        <v>56</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c t="s" r="I34" s="14">
+        <v>57</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="98">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1537,10 +1624,19 @@
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:N34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
